--- a/biology/Botanique/Acer_hilaense/Acer_hilaense.xlsx
+++ b/biology/Botanique/Acer_hilaense/Acer_hilaense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acer hilaense ou Erable du Hile est une espèce végétale de la famille des Aceraceae. Cet érable pouvant mesurer 10m de haut[1], pousse dans la province du Yunnan entre une altitude de 1200m et 2500m[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acer hilaense ou Erable du Hile est une espèce végétale de la famille des Aceraceae. Cet érable pouvant mesurer 10m de haut, pousse dans la province du Yunnan entre une altitude de 1200m et 2500m.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Menacé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon UICN, cette espèce serait peut-être éteinte à l'état sauvage, si il y a encore des espèces qui vivent dans la nature, on ne connait pas le nombre d'individus restant[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon UICN, cette espèce serait peut-être éteinte à l'état sauvage, si il y a encore des espèces qui vivent dans la nature, on ne connait pas le nombre d'individus restant.
 </t>
         </is>
       </c>
